--- a/data/trans_dic/P19C03-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P19C03-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.245479893609551</v>
+        <v>0.2448168809344867</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.307646046381264</v>
+        <v>0.3078476679774624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1952420813866202</v>
+        <v>0.2010694507587837</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1421127013869134</v>
+        <v>0.1362233084814251</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2682246551378743</v>
+        <v>0.2730805936218263</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2209335494147943</v>
+        <v>0.2227976535220841</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1654044936500869</v>
+        <v>0.1657685020275537</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1447951503699534</v>
+        <v>0.1471934642554512</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2679865328079724</v>
+        <v>0.2679046888258668</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2848084155272501</v>
+        <v>0.2864159391511927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.1934430162730601</v>
+        <v>0.1958367369474631</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1513325475758695</v>
+        <v>0.1527743183976823</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.3389372901286684</v>
+        <v>0.3463850514964272</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4123697040636767</v>
+        <v>0.4195359818852107</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2886648514396564</v>
+        <v>0.2903029976416604</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2191141350880966</v>
+        <v>0.2105869408912577</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3828751923103914</v>
+        <v>0.3863913951271999</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.3274701704678562</v>
+        <v>0.3302773937145668</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.2550334241338142</v>
+        <v>0.2590393628059299</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.2059675456675952</v>
+        <v>0.2051851036800911</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3409448065978522</v>
+        <v>0.3409687991838362</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.3565903772503883</v>
+        <v>0.3594895077078321</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.2605592797158834</v>
+        <v>0.2601087714635492</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.2000786943164534</v>
+        <v>0.2002129482891365</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.2811091329242399</v>
+        <v>0.2756263976187387</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2305026304486873</v>
+        <v>0.231167650931387</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2113412238931361</v>
+        <v>0.20710682292811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1206535385564567</v>
+        <v>0.1215816511894052</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3175448006055017</v>
+        <v>0.3199738305864748</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2506804418648368</v>
+        <v>0.2511007041509934</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2331359524159733</v>
+        <v>0.2372191284840287</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1441833746108264</v>
+        <v>0.1474630446217881</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3153863805960183</v>
+        <v>0.314893118845581</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2522371736227153</v>
+        <v>0.2531257774727411</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2414716357682032</v>
+        <v>0.2407237097945579</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1412406205464085</v>
+        <v>0.1403257929321134</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.3970366506393699</v>
+        <v>0.391984748689237</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3278550397369348</v>
+        <v>0.3258404952457372</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.3184818691205995</v>
+        <v>0.3122947970691763</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1943032549216241</v>
+        <v>0.1925774576501949</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4217560995990914</v>
+        <v>0.427416942423334</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3591941601852579</v>
+        <v>0.3572973792855451</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.3346377377632506</v>
+        <v>0.3408674892240061</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2088649247022414</v>
+        <v>0.2096804715847008</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.3892753511471751</v>
+        <v>0.3922187219086098</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3231549062754272</v>
+        <v>0.3257818675723211</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.3123864784915683</v>
+        <v>0.3113060863356407</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1890218139266714</v>
+        <v>0.1905954891829742</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3073607723876267</v>
+        <v>0.3072304789854358</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2553061212134441</v>
+        <v>0.2554680429956102</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.2516217136907626</v>
+        <v>0.2477203750630351</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1925438353971242</v>
+        <v>0.186794797762343</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2406352333924713</v>
+        <v>0.2438305032296602</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2415038604910727</v>
+        <v>0.2353999963416035</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1873837516504413</v>
+        <v>0.1878615965570913</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.125861921393516</v>
+        <v>0.1261107560270461</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3076132476604678</v>
+        <v>0.3045249150137521</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2606812537094029</v>
+        <v>0.2590833226626879</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.2497637193596715</v>
+        <v>0.251040906901922</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1816591215651799</v>
+        <v>0.1811197265565808</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.400228285857458</v>
+        <v>0.3977597821227269</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3333308519659692</v>
+        <v>0.335223585965217</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3450100348460154</v>
+        <v>0.340231373913482</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2760202878774736</v>
+        <v>0.2719841154737224</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.4019854315072802</v>
+        <v>0.4020546911534335</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3617133810614429</v>
+        <v>0.3585768299432862</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3395360028079997</v>
+        <v>0.3399282215141168</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2306414720039403</v>
+        <v>0.2296617299469343</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3845991779346669</v>
+        <v>0.3811950219262137</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3262978807266332</v>
+        <v>0.3281766932860998</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3304819562462906</v>
+        <v>0.32776504083809</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2480234669118012</v>
+        <v>0.2497039639724568</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.2851780989419327</v>
+        <v>0.2832581735668198</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2594689241218159</v>
+        <v>0.2599282663786071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2651262514260892</v>
+        <v>0.2605295182258007</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1772919608446339</v>
+        <v>0.1788261556279548</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.314570249388159</v>
+        <v>0.3209019738349669</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2940333259580115</v>
+        <v>0.2893812478819328</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2946928246181211</v>
+        <v>0.2970928162514855</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1919594990662028</v>
+        <v>0.1907726220480583</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3071343506118576</v>
+        <v>0.3058505892715838</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2835192033326741</v>
+        <v>0.2832244473847224</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.2863915871345157</v>
+        <v>0.2871754495038736</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1903318274845637</v>
+        <v>0.1903011205581342</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3476839831019566</v>
+        <v>0.34411841057445</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3201678856861909</v>
+        <v>0.3184077084284258</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.3242000818398506</v>
+        <v>0.3260183212382727</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2278657923941555</v>
+        <v>0.2322452010077664</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3978254581220578</v>
+        <v>0.3984543159300407</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3671562523359378</v>
+        <v>0.36221189075084</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3672010951177327</v>
+        <v>0.3691395987380777</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.2400383020799946</v>
+        <v>0.2404516024940496</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.3554370840018586</v>
+        <v>0.3561580500538101</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3278843670404967</v>
+        <v>0.330059292400832</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.3323349308795449</v>
+        <v>0.3331788807353046</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2280899358174093</v>
+        <v>0.227345952026164</v>
       </c>
     </row>
     <row r="16">
@@ -1241,7 +1241,7 @@
         <v>0.279710685595653</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.1931461018279898</v>
+        <v>0.1931461018279897</v>
       </c>
     </row>
     <row r="17">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.275854636051335</v>
+        <v>0.278453048215956</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2424145034220255</v>
+        <v>0.2380709268466981</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2277434342394052</v>
+        <v>0.2266447497081691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1599791857144711</v>
+        <v>0.1587339732232249</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2980164584597825</v>
+        <v>0.2942519703532144</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2462624577830853</v>
+        <v>0.2446514170399139</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2504432536900496</v>
+        <v>0.2506862602561493</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1687082623448604</v>
+        <v>0.1672040623842031</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3017828673475313</v>
+        <v>0.3052543369405351</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2531052714239171</v>
+        <v>0.252933941112282</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.2525270896860121</v>
+        <v>0.2509794039256268</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1718166389579834</v>
+        <v>0.1725792041130922</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.3995404062235997</v>
+        <v>0.3969316573479277</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3342997687590464</v>
+        <v>0.3272424565789843</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3176946259352592</v>
+        <v>0.3186727578249959</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.2421176209199605</v>
+        <v>0.2379040175064285</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3869213334409667</v>
+        <v>0.3859837224877362</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3175156592505016</v>
+        <v>0.3114140781096553</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.325112070926651</v>
+        <v>0.3261667678458816</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2177446457035838</v>
+        <v>0.2172492288881165</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3749990667149571</v>
+        <v>0.3761732032105057</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.30815296088705</v>
+        <v>0.3093083564433222</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3054905989847761</v>
+        <v>0.3084738253285998</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2162524424703272</v>
+        <v>0.2154436017439159</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.1984465424446442</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.1491442096414408</v>
+        <v>0.1491442096414409</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.275057779643312</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2395540065565583</v>
+        <v>0.2457522208119905</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2688111043034234</v>
+        <v>0.2654401127176791</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2063750627964257</v>
+        <v>0.2038177520975613</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.08321573675141369</v>
+        <v>0.08446552320220796</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2418104399994463</v>
+        <v>0.2413405381592718</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2410498753289778</v>
+        <v>0.2416182803701093</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1684571659554431</v>
+        <v>0.1725106059804426</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1259677143602413</v>
+        <v>0.1256656901430628</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2519173067485053</v>
+        <v>0.2480741928465216</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2550462719014882</v>
+        <v>0.2508084536491275</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1893554728732181</v>
+        <v>0.1864281202565151</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1244360058507089</v>
+        <v>0.1278154079223495</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.3628418607296496</v>
+        <v>0.3664099592838194</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3943755480094364</v>
+        <v>0.3983055646165093</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.3242508217912551</v>
+        <v>0.3216458461377106</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.2658735843994045</v>
+        <v>0.2683319329002951</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2984157946839636</v>
+        <v>0.2985797285054622</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.30306031655888</v>
+        <v>0.3026082525683117</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.2266941798776395</v>
+        <v>0.228560272195852</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1778632512171014</v>
+        <v>0.179966344209136</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.3033866675479798</v>
+        <v>0.3036053496782328</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3091400479708175</v>
+        <v>0.3059487552810411</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2405386940364531</v>
+        <v>0.2369737743729883</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1798721971471297</v>
+        <v>0.1835404248893135</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1513,7 @@
         <v>0.2684192031431934</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.1863779706044952</v>
+        <v>0.1863779706044953</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.299966216138289</v>
+        <v>0.3010826990977885</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.2819244454859704</v>
+        <v>0.2851512479226413</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2573217099080121</v>
+        <v>0.2583311886016141</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1753293861976166</v>
+        <v>0.1767132234638254</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.3026267531097215</v>
+        <v>0.3040531281407023</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.2735083237488574</v>
+        <v>0.2722646417171244</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.2448278335871015</v>
+        <v>0.2454069200328157</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1714386978066815</v>
+        <v>0.172030006852106</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3082099358735537</v>
+        <v>0.3074616556067193</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.2828355431207788</v>
+        <v>0.2829001824009871</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.256979232515866</v>
+        <v>0.2564242177557141</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1773318127799738</v>
+        <v>0.177442200224256</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3406718529612479</v>
+        <v>0.3391835339211705</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.3177982517576874</v>
+        <v>0.3179541195197615</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.2930326372008237</v>
+        <v>0.2932490027341147</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2081509599996526</v>
+        <v>0.2067129023576821</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.3384582749427988</v>
+        <v>0.33936131330113</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.3074259852198351</v>
+        <v>0.3075019983694536</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.2781054439816888</v>
+        <v>0.278097282736362</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.194735288635865</v>
+        <v>0.1947185883087274</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3332845655101696</v>
+        <v>0.3330602300974797</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.3062599468614677</v>
+        <v>0.3081453037609196</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.2810192257175702</v>
+        <v>0.2809282990624398</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.196695349759369</v>
+        <v>0.1965365014889409</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>94829</v>
+        <v>94573</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>121626</v>
+        <v>121706</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>75679</v>
+        <v>77937</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>76920</v>
+        <v>73733</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>71961</v>
+        <v>73264</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>64520</v>
+        <v>65064</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>52237</v>
+        <v>52352</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>69694</v>
+        <v>70848</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>175421</v>
+        <v>175368</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>195770</v>
+        <v>196875</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>136074</v>
+        <v>137757</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>154751</v>
+        <v>156225</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>130932</v>
+        <v>133809</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>163028</v>
+        <v>165861</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>111891</v>
+        <v>112526</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>118598</v>
+        <v>113983</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>102720</v>
+        <v>103664</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>95632</v>
+        <v>96452</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>80544</v>
+        <v>81809</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>99138</v>
+        <v>98761</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>223179</v>
+        <v>223195</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>245112</v>
+        <v>247104</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>183285</v>
+        <v>182968</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>204598</v>
+        <v>204736</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>84390</v>
+        <v>82744</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>88237</v>
+        <v>88492</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>66923</v>
+        <v>65582</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>57833</v>
+        <v>58278</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>105922</v>
+        <v>106732</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>78589</v>
+        <v>78720</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>77768</v>
+        <v>79130</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>60257</v>
+        <v>61628</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>199882</v>
+        <v>199570</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>175634</v>
+        <v>176253</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>157013</v>
+        <v>156526</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>126729</v>
+        <v>125908</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>119192</v>
+        <v>117676</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>125504</v>
+        <v>124733</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>100850</v>
+        <v>98891</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>93136</v>
+        <v>92309</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>140683</v>
+        <v>142571</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>112608</v>
+        <v>112013</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>111627</v>
+        <v>113705</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>87289</v>
+        <v>87630</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>246711</v>
+        <v>248576</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>225014</v>
+        <v>226844</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>203124</v>
+        <v>202421</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>169600</v>
+        <v>171012</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>132247</v>
+        <v>132191</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>136713</v>
+        <v>136800</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>101960</v>
+        <v>100379</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>89314</v>
+        <v>86648</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33705</v>
+        <v>34153</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>58122</v>
+        <v>56653</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>26125</v>
+        <v>26192</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>23263</v>
+        <v>23309</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>175443</v>
+        <v>173681</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>202329</v>
+        <v>201088</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>136030</v>
+        <v>136725</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>117842</v>
+        <v>117492</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>172205</v>
+        <v>171143</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>178495</v>
+        <v>179508</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>139802</v>
+        <v>137865</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>128036</v>
+        <v>126164</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>56305</v>
+        <v>56315</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>87052</v>
+        <v>86297</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>47338</v>
+        <v>47393</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>42630</v>
+        <v>42449</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>219350</v>
+        <v>217409</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>253257</v>
+        <v>254715</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>179991</v>
+        <v>178512</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>160892</v>
+        <v>161982</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>248223</v>
+        <v>246552</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>252146</v>
+        <v>252592</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>233180</v>
+        <v>229137</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>194259</v>
+        <v>195940</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>187562</v>
+        <v>191337</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>205215</v>
+        <v>201968</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>201579</v>
+        <v>203221</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>160630</v>
+        <v>159637</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>450462</v>
+        <v>448579</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>473394</v>
+        <v>472902</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>447784</v>
+        <v>449009</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>367814</v>
+        <v>367755</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>302629</v>
+        <v>299525</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>311131</v>
+        <v>309421</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>285136</v>
+        <v>286735</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>249672</v>
+        <v>254471</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>237203</v>
+        <v>237578</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>256250</v>
+        <v>252799</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>251177</v>
+        <v>252503</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>200862</v>
+        <v>201207</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>521306</v>
+        <v>522363</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>547471</v>
+        <v>551102</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>519618</v>
+        <v>520937</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>440781</v>
+        <v>439344</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>68392</v>
+        <v>69036</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>97769</v>
+        <v>96017</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>96829</v>
+        <v>96362</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>81565</v>
+        <v>80930</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>135919</v>
+        <v>134202</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>164952</v>
+        <v>163873</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>139617</v>
+        <v>139753</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>133758</v>
+        <v>132566</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>212457</v>
+        <v>214901</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>271616</v>
+        <v>271432</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>248146</v>
+        <v>246625</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>223823</v>
+        <v>224816</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>99057</v>
+        <v>98410</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>134827</v>
+        <v>131981</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>135074</v>
+        <v>135490</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>123443</v>
+        <v>121295</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>176467</v>
+        <v>176039</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>212679</v>
+        <v>208592</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>181244</v>
+        <v>181832</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>172636</v>
+        <v>172243</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>264002</v>
+        <v>264829</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>330690</v>
+        <v>331930</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>300190</v>
+        <v>303122</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>281709</v>
+        <v>280655</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>50841</v>
+        <v>52157</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>59216</v>
+        <v>58474</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>49849</v>
+        <v>49232</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>18689</v>
+        <v>18970</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>228660</v>
+        <v>228215</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>223324</v>
+        <v>223851</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>139026</v>
+        <v>142371</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>103135</v>
+        <v>102888</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>291682</v>
+        <v>287232</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>292476</v>
+        <v>287616</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>202011</v>
+        <v>198888</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>129828</v>
+        <v>133354</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>77007</v>
+        <v>77764</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>86877</v>
+        <v>87742</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>78322</v>
+        <v>77693</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>59712</v>
+        <v>60264</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>282187</v>
+        <v>282342</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>280775</v>
+        <v>280356</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>187088</v>
+        <v>188628</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>145624</v>
+        <v>147346</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>351276</v>
+        <v>351529</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>354508</v>
+        <v>350848</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>256616</v>
+        <v>252812</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>187666</v>
+        <v>191493</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>734122</v>
+        <v>736854</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>820122</v>
+        <v>829509</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>683371</v>
+        <v>686051</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>581146</v>
+        <v>585733</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>829156</v>
+        <v>833064</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>858931</v>
+        <v>855025</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>699134</v>
+        <v>700787</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>605599</v>
+        <v>607687</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>1598750</v>
+        <v>1594869</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1710994</v>
+        <v>1711385</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1416294</v>
+        <v>1413235</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1214199</v>
+        <v>1214955</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>833743</v>
+        <v>830100</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>924479</v>
+        <v>924933</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>778208</v>
+        <v>778783</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>689936</v>
+        <v>685170</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>927330</v>
+        <v>929804</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>965446</v>
+        <v>965685</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>794162</v>
+        <v>794138</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>687893</v>
+        <v>687834</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1728818</v>
+        <v>1727654</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1852699</v>
+        <v>1864104</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1548786</v>
+        <v>1548285</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1346782</v>
+        <v>1345694</v>
       </c>
     </row>
     <row r="32">
